--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2525.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2525.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.580351608734948</v>
+        <v>2.27868390083313</v>
       </c>
       <c r="B1">
-        <v>3.637168259862098</v>
+        <v>2.371200084686279</v>
       </c>
       <c r="C1">
-        <v>3.323626991516156</v>
+        <v>2.466561079025269</v>
       </c>
       <c r="D1">
-        <v>1.76749296256772</v>
+        <v>3.246614694595337</v>
       </c>
       <c r="E1">
-        <v>1.764328414450244</v>
+        <v>2.262989521026611</v>
       </c>
     </row>
   </sheetData>
